--- a/media/model_dict.__init__.xlsx
+++ b/media/model_dict.__init__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BCD422-FDF5-41C6-A2C5-33881343343D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE9514F-CA1A-4883-8FE2-344DC8C64E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string or model instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>input_shape</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,14 +80,6 @@
   <si>
     <t>Device to be used for compile and inerence. Either "cpu" or "gpu".
 Defaults to "cpu"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model path or model instance. The following cases are supported:
-Using backend="onnx" and a onnx model path
-Using backend="tvm" and a Keras model
-Using backend="tvm" and a PyTorch model
-Using backend="tf" and a fronzen TensorFlow PB graph</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,6 +90,18 @@
 "tf": TensorFlow,
 "tvm": PyTorch, Keras, ONNX,
 Defaults to "onnx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model path or model instance. The following cases are supported:
+Using backend="onnx" and a onnx model path,
+Using backend="tvm" and a Keras model,
+Using backend="tvm" and a PyTorch model,
+Using backend="tf" and a fronzen TensorFlow PB graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string or model class of the corresponding framework</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,10 +498,10 @@
     </row>
     <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -512,32 +512,32 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/media/model_dict.__init__.xlsx
+++ b/media/model_dict.__init__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE9514F-CA1A-4883-8FE2-344DC8C64E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6840BF9-9C5B-4BAE-8538-4E36E0A50C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="29505" yWindow="1335" windowWidth="17610" windowHeight="11295" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Input shape in HWC. Required only for using PyTorch model and backend="tvm".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>device</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,30 +74,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string or model class of the corresponding framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input shape in HWC. Required only for using PyTorch model.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Device to be used for compile and inerence. Either "cpu" or "gpu".
-Defaults to "cpu"</t>
+Defaults to "cpu".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Which framework to use to get the Mobilint IR.
-It must be one of "onnx", "tf", and "tvm".
+It must be one of "onnx", "tf1", "tf2", and "torchscript".
 They correspond to deep learning frameworks as follows:
 "onnx": ONNX,
-"tf": TensorFlow,
-"tvm": PyTorch, Keras, ONNX,
-Defaults to "onnx"</t>
+"tf1" and "tf2": TensorFlow,
+Defaults to "onnx".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Model path or model instance. The following cases are supported:
-Using backend="onnx" and a onnx model path,
-Using backend="tvm" and a Keras model,
-Using backend="tvm" and a PyTorch model,
-Using backend="tf" and a fronzen TensorFlow PB graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string or model class of the corresponding framework</t>
+Using backend="onnx" and a ONNX model path,
+Using backend="torchscript" and a PyTorch model path,
+Using backend="tf1" or "tf2" and a fronzen TensorFlow PB graph.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +158,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -176,7 +174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -496,26 +494,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -523,21 +521,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/media/model_dict.__init__.xlsx
+++ b/media/model_dict.__init__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6840BF9-9C5B-4BAE-8538-4E36E0A50C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019F7B95-E46C-457F-9C47-8BFD82F73E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29505" yWindow="1335" windowWidth="17610" windowHeight="11295" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,19 +87,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Model path or model instance. The following cases are supported:
+When using backend="onnx", it should be the path to ONNX model file
+When using backend="torchscript", it should be the path to PyTorch model file
+When using backend="tf", it should be the path to the folder saving TensorFlow PB graph and assets.
+When using backend="tflite", it should be the path to TF Lite model file.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Which framework to use to get the Mobilint IR.
-It must be one of "onnx", "tf1", "tf2", and "torchscript".
+It must be one of "onnx", "tf", "tflite", or "torchscript".
 They correspond to deep learning frameworks as follows:
 "onnx": ONNX,
-"tf1" and "tf2": TensorFlow,
+"tf": TensorFlow,
+"tflite": TensorFlow Lite,
+"torchscript": PyTorch
 Defaults to "onnx".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model path or model instance. The following cases are supported:
-Using backend="onnx" and a ONNX model path,
-Using backend="torchscript" and a PyTorch model path,
-Using backend="tf1" or "tf2" and a fronzen TensorFlow PB graph.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,9 +177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +217,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -320,7 +323,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -462,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -502,10 +505,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="132" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -513,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
